--- a/figs/MAPE_t+h.xlsx
+++ b/figs/MAPE_t+h.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Projetos\projecao_demanda_eletrica\figs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C480A3C7-D557-4CF4-BE95-827622661410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46A42D5-B9DC-4C5F-8BAF-550CFE621425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11265" yWindow="570" windowWidth="18255" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$P$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$Q$15</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>2022-05-17</t>
   </si>
@@ -156,6 +156,42 @@
   </si>
   <si>
     <t>Modelo</t>
+  </si>
+  <si>
+    <t>SARIMA</t>
+  </si>
+  <si>
+    <t>Árvores de decisão</t>
+  </si>
+  <si>
+    <t>Ensemble</t>
+  </si>
+  <si>
+    <t>Holt Winters</t>
+  </si>
+  <si>
+    <t>LightGBM multivariado</t>
+  </si>
+  <si>
+    <t>XGBoost multivariado</t>
+  </si>
+  <si>
+    <t>Prophet</t>
+  </si>
+  <si>
+    <t>TBATS</t>
+  </si>
+  <si>
+    <t>LightGBM univ. - direto</t>
+  </si>
+  <si>
+    <t>LightGBM univ. - recursivo</t>
+  </si>
+  <si>
+    <t>XGBoost univ. - direto</t>
+  </si>
+  <si>
+    <t>XGBoost univ. - recursivo</t>
   </si>
 </sst>
 </file>
@@ -200,7 +236,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -223,12 +259,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -237,10 +324,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,767 +684,767 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF17"/>
+  <dimension ref="B1:AG17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="17" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="R1" s="1" t="s">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="S1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5">
+    <row r="4" spans="2:33" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4">
         <v>1.7684467218975281E-2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="4">
         <v>3.03956138056477E-2</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="4">
         <v>3.4158732561049461E-2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="4">
         <v>4.012675082155031E-2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="4">
         <v>4.1040780735660143E-2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="4">
         <v>3.9457417669624552E-2</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="4">
         <v>4.0084195153198512E-2</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="4">
         <v>3.937535538537143E-2</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="4">
         <v>4.0020799676277759E-2</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="4">
         <v>4.4478699634237943E-2</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="4">
         <v>5.1196796184077603E-2</v>
       </c>
-      <c r="M4" s="5">
+      <c r="N4" s="4">
         <v>5.2964355739458062E-2</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O4" s="4">
         <v>5.2439637463724882E-2</v>
       </c>
-      <c r="O4" s="5">
+      <c r="P4" s="4">
         <v>5.1948944262848767E-2</v>
       </c>
-      <c r="P4" s="5">
+      <c r="Q4" s="5">
         <v>5.1887718187087629E-2</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5">
+    <row r="5" spans="2:33" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="4">
         <v>2.309718706080886E-2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="4">
         <v>1.8548767983582109E-2</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="4">
         <v>5.8596693764190938E-2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="4">
         <v>5.2538653185500488E-2</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="4">
         <v>5.9828423661491013E-2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="4">
         <v>6.0825210556256407E-2</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="4">
         <v>5.3709511794436629E-2</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="4">
         <v>4.8602063422102403E-2</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="4">
         <v>4.7426876728605932E-2</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="4">
         <v>4.3763728363249897E-2</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="4">
         <v>4.5421720656050393E-2</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="4">
         <v>4.7593469227412082E-2</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="4">
         <v>4.7847623670948553E-2</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="4">
         <v>4.883879115513784E-2</v>
       </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="6">
         <v>6.196920545847813E-2</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="5">
+    <row r="6" spans="2:33" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4">
         <v>7.8619996775634061E-3</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="4">
         <v>1.0789042728585651E-2</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="4">
         <v>7.8135774642676108E-3</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="4">
         <v>7.2241264994618651E-3</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="4">
         <v>6.9156759731574258E-3</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="4">
         <v>8.2423441582509388E-3</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="4">
         <v>7.9494026237608983E-3</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="4">
         <v>7.6408663938144512E-3</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="4">
         <v>8.1969714340389202E-3</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="4">
         <v>1.17713445269562E-2</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="4">
         <v>1.6829963835314359E-2</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N6" s="4">
         <v>1.7547923523062059E-2</v>
       </c>
-      <c r="N6" s="5">
+      <c r="O6" s="4">
         <v>1.6674548860230499E-2</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="4">
         <v>1.5836361934953941E-2</v>
       </c>
-      <c r="P6" s="5">
+      <c r="Q6" s="6">
         <v>1.5986158405141931E-2</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="5">
+    <row r="7" spans="2:33" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4">
         <v>3.800381883901068E-3</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D7" s="4">
         <v>1.50627944280182E-2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="4">
         <v>1.6602208366248681E-2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="4">
         <v>2.1358012535995952E-2</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="4">
         <v>2.6405392855682889E-2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="4">
         <v>2.9461286620913969E-2</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="4">
         <v>2.8331868477971731E-2</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="4">
         <v>2.7120873802424009E-2</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K7" s="4">
         <v>2.7121979133360011E-2</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7" s="4">
         <v>3.072006454612539E-2</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="4">
         <v>3.6848686049053052E-2</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="4">
         <v>4.0400168028880537E-2</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O7" s="4">
         <v>4.2595160224404252E-2</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="4">
         <v>4.1257717317993318E-2</v>
       </c>
-      <c r="P7" s="5">
+      <c r="Q7" s="6">
         <v>4.0827288353445512E-2</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="5">
+    <row r="8" spans="2:33" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="4">
         <v>1.8605612999183192E-2</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D8" s="4">
         <v>3.0357949775508899E-2</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="4">
         <v>2.9894535095748982E-2</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="4">
         <v>2.340120220008703E-2</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="4">
         <v>2.2042646771348099E-2</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="4">
         <v>2.724114953989934E-2</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="4">
         <v>2.4153959374936539E-2</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J8" s="4">
         <v>2.2581027839487119E-2</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K8" s="4">
         <v>2.7171393884590792E-2</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="4">
         <v>2.8374468540265381E-2</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="4">
         <v>3.2452694502387448E-2</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="4">
         <v>3.1395106043751023E-2</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="4">
         <v>2.9738489837861461E-2</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="4">
         <v>3.0296957965585271E-2</v>
       </c>
-      <c r="P8" s="5">
+      <c r="Q8" s="6">
         <v>3.0653812909468309E-2</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5">
+    <row r="9" spans="2:33" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="4">
         <v>9.6817594993275895E-3</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="4">
         <v>3.4693039978310608E-2</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="4">
         <v>3.4102178088666307E-2</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="4">
         <v>3.3656269305439059E-2</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="4">
         <v>3.0605310270200348E-2</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="4">
         <v>3.2902093792914089E-2</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="4">
         <v>3.1768048643806709E-2</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="4">
         <v>3.839701458693337E-2</v>
       </c>
-      <c r="J9" s="5">
+      <c r="K9" s="4">
         <v>4.0247139911894853E-2</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L9" s="4">
         <v>4.7658620569207132E-2</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M9" s="4">
         <v>4.9325719417958519E-2</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="4">
         <v>4.7081346384251647E-2</v>
       </c>
-      <c r="N9" s="5">
+      <c r="O9" s="4">
         <v>4.6422845980575972E-2</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="4">
         <v>4.5546135336567373E-2</v>
       </c>
-      <c r="P9" s="5">
+      <c r="Q9" s="6">
         <v>4.4283774732120147E-2</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5">
+    <row r="10" spans="2:33" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="4">
         <v>1.952438123902803E-2</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D10" s="4">
         <v>1.0315672913054229E-2</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="4">
         <v>1.219569606585167E-2</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="4">
         <v>1.532524150817588E-2</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="4">
         <v>2.385192558060267E-2</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="4">
         <v>3.2291958919586618E-2</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="4">
         <v>2.8989086614885251E-2</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="4">
         <v>2.6325661476175981E-2</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K10" s="4">
         <v>2.3604943342065181E-2</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="4">
         <v>2.372230615439962E-2</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="4">
         <v>2.490186130031442E-2</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N10" s="4">
         <v>2.5207998661155671E-2</v>
       </c>
-      <c r="N10" s="5">
+      <c r="O10" s="4">
         <v>2.761868805323486E-2</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P10" s="4">
         <v>2.6645288600999059E-2</v>
       </c>
-      <c r="P10" s="5">
+      <c r="Q10" s="6">
         <v>2.495995836931721E-2</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="5">
+    <row r="11" spans="2:33" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="4">
         <v>9.6931481932692964E-2</v>
       </c>
-      <c r="C11" s="5">
+      <c r="D11" s="4">
         <v>7.8395940056004448E-2</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E11" s="4">
         <v>5.6931365582338987E-2</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F11" s="4">
         <v>5.4399273086160167E-2</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="4">
         <v>5.8413555814940329E-2</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="4">
         <v>5.3066298064774788E-2</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="4">
         <v>6.7816084444839247E-2</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="4">
         <v>6.8320782782065104E-2</v>
       </c>
-      <c r="J11" s="5">
+      <c r="K11" s="4">
         <v>6.6772558246584193E-2</v>
       </c>
-      <c r="K11" s="5">
+      <c r="L11" s="4">
         <v>6.867488836259994E-2</v>
       </c>
-      <c r="L11" s="5">
+      <c r="M11" s="4">
         <v>7.0354786131515551E-2</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N11" s="4">
         <v>6.5326629843851777E-2</v>
       </c>
-      <c r="N11" s="5">
+      <c r="O11" s="4">
         <v>6.0501074223534262E-2</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="4">
         <v>6.6948061460396099E-2</v>
       </c>
-      <c r="P11" s="5">
+      <c r="Q11" s="6">
         <v>6.7701713675327471E-2</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="5">
+    <row r="12" spans="2:33" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="4">
         <v>8.7910245836265901E-4</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D12" s="4">
         <v>2.517132566683386E-2</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="4">
         <v>2.7110722826260189E-2</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="4">
         <v>2.7166280627456178E-2</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="4">
         <v>3.049627330572038E-2</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="4">
         <v>3.1386008276944342E-2</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="4">
         <v>3.7362691146059168E-2</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J12" s="4">
         <v>3.9544230701095473E-2</v>
       </c>
-      <c r="J12" s="5">
+      <c r="K12" s="4">
         <v>4.0966795947234132E-2</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="4">
         <v>4.902784229228109E-2</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M12" s="4">
         <v>5.0228856798437832E-2</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N12" s="4">
         <v>5.223790821188929E-2</v>
       </c>
-      <c r="N12" s="5">
+      <c r="O12" s="4">
         <v>5.3333102648545558E-2</v>
       </c>
-      <c r="O12" s="5">
+      <c r="P12" s="4">
         <v>5.3369843741681293E-2</v>
       </c>
-      <c r="P12" s="5">
+      <c r="Q12" s="6">
         <v>5.1953460092130477E-2</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="5">
+    <row r="13" spans="2:33" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="4">
         <v>1.294269457772894E-2</v>
       </c>
-      <c r="C13" s="5">
+      <c r="D13" s="4">
         <v>4.0027293189654173E-2</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="4">
         <v>3.9892286399335779E-2</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="4">
         <v>4.21357415566911E-2</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="4">
         <v>4.6222072256544823E-2</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="4">
         <v>4.9258450516824107E-2</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="4">
         <v>4.8309757174393467E-2</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J13" s="4">
         <v>4.7273228776322743E-2</v>
       </c>
-      <c r="J13" s="5">
+      <c r="K13" s="4">
         <v>4.5738793553018818E-2</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="4">
         <v>4.8576809017673778E-2</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M13" s="4">
         <v>4.9524410077495418E-2</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="4">
         <v>4.8823970799587987E-2</v>
       </c>
-      <c r="N13" s="5">
+      <c r="O13" s="4">
         <v>5.0233001228664302E-2</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="4">
         <v>4.7641587939110747E-2</v>
       </c>
-      <c r="P13" s="5">
+      <c r="Q13" s="6">
         <v>4.6270261319978308E-2</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="5">
+    <row r="14" spans="2:33" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="4">
         <v>1.219973720026548E-3</v>
       </c>
-      <c r="C14" s="5">
+      <c r="D14" s="4">
         <v>3.6808603519567308E-2</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E14" s="4">
         <v>3.8124420367281697E-2</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="4">
         <v>3.2719773757842109E-2</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="4">
         <v>3.0115244930568622E-2</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="4">
         <v>3.9225158980048629E-2</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="4">
         <v>4.5058393036226718E-2</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J14" s="4">
         <v>5.0287365004118047E-2</v>
       </c>
-      <c r="J14" s="5">
+      <c r="K14" s="4">
         <v>5.2933982125596718E-2</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L14" s="4">
         <v>5.3614854226918723E-2</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M14" s="4">
         <v>6.2414846602777248E-2</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N14" s="4">
         <v>6.1163131241314693E-2</v>
       </c>
-      <c r="N14" s="5">
+      <c r="O14" s="4">
         <v>5.9850137923235437E-2</v>
       </c>
-      <c r="O14" s="5">
+      <c r="P14" s="4">
         <v>5.9527280016692483E-2</v>
       </c>
-      <c r="P14" s="5">
+      <c r="Q14" s="6">
         <v>5.901963722249691E-2</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="5">
+    <row r="15" spans="2:33" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="7">
         <v>1.39561101982855E-2</v>
       </c>
-      <c r="C15" s="5">
+      <c r="D15" s="8">
         <v>2.876972274090854E-2</v>
       </c>
-      <c r="D15" s="5">
+      <c r="E15" s="8">
         <v>2.944758128948001E-2</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="8">
         <v>3.0554602599686481E-2</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="8">
         <v>3.0043088150715842E-2</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H15" s="8">
         <v>3.0665417637478209E-2</v>
       </c>
-      <c r="H15" s="5">
+      <c r="I15" s="8">
         <v>3.0286891318339039E-2</v>
       </c>
-      <c r="I15" s="5">
+      <c r="J15" s="8">
         <v>2.7942109945490581E-2</v>
       </c>
-      <c r="J15" s="5">
+      <c r="K15" s="8">
         <v>2.8028461922921601E-2</v>
       </c>
-      <c r="K15" s="5">
+      <c r="L15" s="8">
         <v>3.2367673544607928E-2</v>
       </c>
-      <c r="L15" s="5">
+      <c r="M15" s="8">
         <v>3.5773201520961168E-2</v>
       </c>
-      <c r="M15" s="5">
+      <c r="N15" s="8">
         <v>3.8597843833043877E-2</v>
       </c>
-      <c r="N15" s="5">
+      <c r="O15" s="8">
         <v>4.045453310178336E-2</v>
       </c>
-      <c r="O15" s="5">
+      <c r="P15" s="8">
         <v>4.0242286402578042E-2</v>
       </c>
-      <c r="P15" s="5">
+      <c r="Q15" s="9">
         <v>4.1577699716765032E-2</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="R16" s="1" t="s">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="S16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R17" s="1" t="s">
+    <row r="17" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B4:B15">
+  <conditionalFormatting sqref="C4:C15">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1354,7 +1456,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C15">
+  <conditionalFormatting sqref="D4:D15">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1366,7 +1468,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D15">
+  <conditionalFormatting sqref="E4:E15">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1378,7 +1480,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E15">
+  <conditionalFormatting sqref="F4:F15">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -1390,7 +1492,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:P15">
+  <conditionalFormatting sqref="G4:Q15">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
